--- a/Code/Results/Cases/Case_2_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_92/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.41208740078433</v>
+        <v>8.081187044361265</v>
       </c>
       <c r="C2">
-        <v>6.92820238067582</v>
+        <v>4.868885135800753</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.51248644214074</v>
+        <v>12.78731148306921</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.096203426769402</v>
+        <v>3.63622180581312</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.90406367927548</v>
+        <v>20.65332281824074</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.2335292963682</v>
+        <v>7.919350851870529</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.47573764841366</v>
+        <v>13.37601256877296</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.7514067050989</v>
+        <v>21.65688099826048</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.6681342666061</v>
+        <v>7.764384920425327</v>
       </c>
       <c r="C3">
-        <v>6.579706627940247</v>
+        <v>4.705078792479989</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.65857802536492</v>
+        <v>12.5827115674136</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.100734307332408</v>
+        <v>3.637859404668161</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.19837574693933</v>
+        <v>20.77057059430543</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.65185868158444</v>
+        <v>7.709206396593488</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.55677914755007</v>
+        <v>13.19755499872676</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.9585655766873</v>
+        <v>21.77027105084723</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.18634331203271</v>
+        <v>7.563795508589352</v>
       </c>
       <c r="C4">
-        <v>6.356144291718377</v>
+        <v>4.600707676867058</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.11989223355479</v>
+        <v>12.46007882931824</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.103597010910944</v>
+        <v>3.638917340391958</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.3885784427087</v>
+        <v>20.84679552166092</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.27775586603311</v>
+        <v>7.577983424331817</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.96261324317789</v>
+        <v>13.08977309511277</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.09923515512742</v>
+        <v>21.84485241634784</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.98375715076094</v>
+        <v>7.480645052716572</v>
       </c>
       <c r="C5">
-        <v>6.26268231227843</v>
+        <v>4.557261801265673</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.89698009518606</v>
+        <v>12.41092938550938</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.104784412726981</v>
+        <v>3.639361686306258</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.46839881504591</v>
+        <v>20.87892313009361</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.1211219876951</v>
+        <v>7.524032995501652</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.71294747792298</v>
+        <v>13.04635395027177</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.15977643912825</v>
+        <v>21.87649025580648</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.94974154689449</v>
+        <v>7.466756623603518</v>
       </c>
       <c r="C6">
-        <v>6.247022319374556</v>
+        <v>4.549993710492458</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.85976832678201</v>
+        <v>12.40282001765264</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.104982852773349</v>
+        <v>3.639436269788074</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.48179048583637</v>
+        <v>20.884322256456</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.09486304973891</v>
+        <v>7.515048112217919</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.67103520696516</v>
+        <v>13.03917611702196</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.17001884914651</v>
+        <v>21.88181885938717</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.18363642375301</v>
+        <v>7.562679649933698</v>
       </c>
       <c r="C7">
-        <v>6.354893303322609</v>
+        <v>4.600125394446204</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.11689936786236</v>
+        <v>12.45941255100485</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.103612939618422</v>
+        <v>3.638923279379793</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.38964566324075</v>
+        <v>20.84722449154397</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.2756602685364</v>
+        <v>7.577257654247505</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.95927669550124</v>
+        <v>13.08918542483904</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.10003882532517</v>
+        <v>21.84527405533155</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.16077715514522</v>
+        <v>7.973280549737491</v>
       </c>
       <c r="C8">
-        <v>6.810057628320351</v>
+        <v>4.813214753169545</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.22116184598407</v>
+        <v>12.71618796220288</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.09774924597042</v>
+        <v>3.636775590109499</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.003522992512</v>
+        <v>20.69287135938985</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.03653016799125</v>
+        <v>7.847392235604052</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.16507845793631</v>
+        <v>13.31414013010204</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.81993193831501</v>
+        <v>21.69494749513488</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.87780384822705</v>
+        <v>8.725770382474165</v>
       </c>
       <c r="C9">
-        <v>7.624898611180221</v>
+        <v>5.199434799866355</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.32120212436682</v>
+        <v>13.24024575756554</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.086865786815976</v>
+        <v>3.632978207025967</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.32567863919577</v>
+        <v>20.42375634696059</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.39147947939362</v>
+        <v>8.461369263491095</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.29352588865158</v>
+        <v>13.76716444605257</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.38590772581657</v>
+        <v>21.43958783509888</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.01770973215358</v>
+        <v>9.241308432242089</v>
       </c>
       <c r="C10">
-        <v>8.174626794738522</v>
+        <v>5.462099524199733</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.92836417125323</v>
+        <v>13.6334402047557</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.079207314646343</v>
+        <v>3.63043814703801</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.88264218570682</v>
+        <v>20.24646654781685</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.30099363419622</v>
+        <v>8.906496779368936</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.71590672201064</v>
+        <v>14.10411944615155</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.14990324893499</v>
+        <v>21.2761233282384</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.51002875939674</v>
+        <v>9.46686374841493</v>
       </c>
       <c r="C11">
-        <v>8.413931539778735</v>
+        <v>5.576704370393052</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.63009225919073</v>
+        <v>13.81317920606532</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.075787716094577</v>
+        <v>3.629336302730785</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.69484587652968</v>
+        <v>20.17024224963027</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.69584208561712</v>
+        <v>9.100380106200049</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.33301985217894</v>
+        <v>14.25764597386327</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.06359351483223</v>
+        <v>21.20702775455759</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.69270581561346</v>
+        <v>9.550926647506772</v>
       </c>
       <c r="C12">
-        <v>8.502997254958432</v>
+        <v>5.619378554363141</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.89170381106166</v>
+        <v>13.88129351382618</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.07450126404928</v>
+        <v>3.628926734013052</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.62589165145694</v>
+        <v>20.14201428764682</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.84263609999521</v>
+        <v>9.172526594130055</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.56246973323698</v>
+        <v>14.31576385541119</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.03421382547183</v>
+        <v>21.18162251488705</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.65352962291189</v>
+        <v>9.532883116730444</v>
       </c>
       <c r="C13">
-        <v>8.483884482181322</v>
+        <v>5.610220434675051</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.83554238186409</v>
+        <v>13.86662276917189</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.07477796035671</v>
+        <v>3.629014601179677</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.64064287506574</v>
+        <v>20.14806537206263</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.81114270506003</v>
+        <v>9.157045679666977</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.51324090598708</v>
+        <v>14.30324883835198</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.0403897271878</v>
+        <v>21.18706015509333</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.52513280919305</v>
+        <v>9.473807027430295</v>
       </c>
       <c r="C14">
-        <v>8.421290177928551</v>
+        <v>5.580229831162534</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.6516970665044</v>
+        <v>13.81878240628663</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.075681713633581</v>
+        <v>3.629302453646944</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.68912852492466</v>
+        <v>20.1679071603719</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.70797358486681</v>
+        <v>9.106341336788086</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.35198134477113</v>
+        <v>14.26242805994999</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.06110856548484</v>
+        <v>21.20492240834684</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.44599788931134</v>
+        <v>9.437443749900352</v>
       </c>
       <c r="C15">
-        <v>8.382746960768225</v>
+        <v>5.561764804430171</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.53855364656842</v>
+        <v>13.78948328023</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.076236368702443</v>
+        <v>3.629479770094389</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.71911463644608</v>
+        <v>20.180143727693</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.64442431166742</v>
+        <v>9.07511672936463</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.25265548983648</v>
+        <v>14.23742005295441</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.07423824223215</v>
+        <v>21.21596257557214</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.98500914035345</v>
+        <v>9.226382058339036</v>
       </c>
       <c r="C16">
-        <v>8.158770374209633</v>
+        <v>5.45450962426413</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.88192228362434</v>
+        <v>13.62170498536032</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.079432022509172</v>
+        <v>3.630511231324578</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.89520676089691</v>
+        <v>20.25153704960099</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.27480813931465</v>
+        <v>8.893649725188173</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.67498012041876</v>
+        <v>14.09408635863009</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.15599064579505</v>
+        <v>21.28074505897242</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.69550043174798</v>
+        <v>9.09456021868864</v>
       </c>
       <c r="C17">
-        <v>8.018604009208424</v>
+        <v>5.38744485342557</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.47164792556215</v>
+        <v>13.51894831568335</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.081408386444976</v>
+        <v>3.631157711317778</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.00687585389813</v>
+        <v>20.29646812873607</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.04321167534484</v>
+        <v>8.780094423485387</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.3129732131621</v>
+        <v>14.00617918233049</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.21172594948366</v>
+        <v>21.32183741180111</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.52651227824781</v>
+        <v>9.017898948708028</v>
       </c>
       <c r="C18">
-        <v>7.936970248107354</v>
+        <v>5.348412517762764</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.23289659842466</v>
+        <v>13.45993188560157</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.082551237935086</v>
+        <v>3.631534600764887</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.07238595906747</v>
+        <v>20.32272785525238</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.908225077456</v>
+        <v>8.713972020324789</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.10193427250531</v>
+        <v>13.95564344587492</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.24574704322075</v>
+        <v>21.34596807557496</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.46887104258073</v>
+        <v>8.99180034129254</v>
       </c>
       <c r="C19">
-        <v>7.909156603178309</v>
+        <v>5.335118819739844</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.15158029023286</v>
+        <v>13.43996709651382</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.082939257886701</v>
+        <v>3.631663077770533</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.0947814070652</v>
+        <v>20.33169048959024</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.86221592531428</v>
+        <v>8.691446420626061</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.02999348920413</v>
+        <v>13.93853908253213</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.25759510440516</v>
+        <v>21.35422331556579</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.7265746917939</v>
+        <v>9.108680369486727</v>
       </c>
       <c r="C20">
-        <v>8.033629937180606</v>
+        <v>5.394631629930313</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.51560852588495</v>
+        <v>13.52987853404591</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.081197373273841</v>
+        <v>3.631088369907506</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.9948546652724</v>
+        <v>20.29164202586517</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.06804967328213</v>
+        <v>8.792266515594974</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.35180108564706</v>
+        <v>14.01553474335382</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.20558765360514</v>
+        <v>21.31741176685714</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.56294775748572</v>
+        <v>9.491196187421142</v>
       </c>
       <c r="C21">
-        <v>8.439717822700867</v>
+        <v>5.589058614244775</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.70580773055271</v>
+        <v>13.83283347695076</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.075416035745707</v>
+        <v>3.629217696380395</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.67482688333005</v>
+        <v>20.16206186977399</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.73835088630474</v>
+        <v>9.121269234557579</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.39946161665247</v>
+        <v>14.27441906189158</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.05493097828396</v>
+        <v>21.19965519085052</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.08770047416594</v>
+        <v>9.733301200778026</v>
       </c>
       <c r="C22">
-        <v>8.696064851046041</v>
+        <v>5.711898512830331</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.45972934687622</v>
+        <v>14.03109680066341</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.071686604460942</v>
+        <v>3.628039826233106</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.47836735137921</v>
+        <v>20.08108401225912</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.16054075349647</v>
+        <v>9.328858960998469</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.05950581670113</v>
+        <v>14.44347834255036</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.97586674815997</v>
+        <v>21.12712415581029</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.80962314964368</v>
+        <v>9.60482514584808</v>
       </c>
       <c r="C23">
-        <v>8.560076278691382</v>
+        <v>5.646730099338121</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.05949938418391</v>
+        <v>13.92527968472484</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.073672855912194</v>
+        <v>3.628664397942691</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.58199149787557</v>
+        <v>20.12396387194684</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.93666501894749</v>
+        <v>9.218754896877524</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.70946021755997</v>
+        <v>14.35327831513417</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.01619383005967</v>
+        <v>21.16542913397695</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.71253394956091</v>
+        <v>9.102299370472968</v>
       </c>
       <c r="C24">
-        <v>8.02683998597796</v>
+        <v>5.391383968940066</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.49574291427577</v>
+        <v>13.5249367905285</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.081292751671595</v>
+        <v>3.631119702897831</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.00028537766756</v>
+        <v>20.29382257297934</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.05682614074793</v>
+        <v>8.786766120088304</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.33425609325702</v>
+        <v>14.0113050798615</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.20835663651847</v>
+        <v>21.31941102456245</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.43467950707591</v>
+        <v>8.528424375226791</v>
       </c>
       <c r="C25">
-        <v>7.412978185689803</v>
+        <v>5.098540067618897</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.72609585219081</v>
+        <v>13.09672672491625</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.089747917846061</v>
+        <v>3.633961428487244</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.49994193648613</v>
+        <v>20.49296915184413</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.03990567446628</v>
+        <v>8.290077205034693</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.74277459730758</v>
+        <v>13.64366052543064</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.48974500786967</v>
+        <v>21.50443695813647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_92/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.081187044361265</v>
+        <v>12.41208740078441</v>
       </c>
       <c r="C2">
-        <v>4.868885135800753</v>
+        <v>6.928202380675887</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.78731148306921</v>
+        <v>14.51248644214073</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.63622180581312</v>
+        <v>2.096203426769401</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.65332281824074</v>
+        <v>12.90406367927541</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.919350851870529</v>
+        <v>11.2335292963683</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.37601256877296</v>
+        <v>14.47573764841375</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.65688099826048</v>
+        <v>13.75140670509875</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.764384920425327</v>
+        <v>11.66813426660613</v>
       </c>
       <c r="C3">
-        <v>4.705078792479989</v>
+        <v>6.579706627940138</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.5827115674136</v>
+        <v>13.65857802536493</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.637859404668161</v>
+        <v>2.100734307332006</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.77057059430543</v>
+        <v>13.19837574693939</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.709206396593488</v>
+        <v>10.65185868158441</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.19755499872676</v>
+        <v>13.55677914755006</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.77027105084723</v>
+        <v>13.95856557668742</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.563795508589352</v>
+        <v>11.18634331203268</v>
       </c>
       <c r="C4">
-        <v>4.600707676867058</v>
+        <v>6.356144291718365</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.46007882931824</v>
+        <v>13.11989223355478</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.638917340391958</v>
+        <v>2.103597010911078</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.84679552166092</v>
+        <v>13.38857844270849</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.577983424331817</v>
+        <v>10.2777558660331</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.08977309511277</v>
+        <v>12.96261324317786</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.84485241634784</v>
+        <v>14.09923515512722</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.480645052716572</v>
+        <v>10.98375715076098</v>
       </c>
       <c r="C5">
-        <v>4.557261801265673</v>
+        <v>6.262682312278596</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.41092938550938</v>
+        <v>12.89698009518606</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.639361686306258</v>
+        <v>2.104784412726712</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.87892313009361</v>
+        <v>13.46839881504574</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.524032995501652</v>
+        <v>10.12112198769518</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.04635395027177</v>
+        <v>12.71294747792301</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.87649025580648</v>
+        <v>14.15977643912805</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.466756623603518</v>
+        <v>10.94974154689445</v>
       </c>
       <c r="C6">
-        <v>4.549993710492458</v>
+        <v>6.247022319374699</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.40282001765264</v>
+        <v>12.85976832678204</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.639436269788074</v>
+        <v>2.104982852773349</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.884322256456</v>
+        <v>13.48179048583628</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.515048112217919</v>
+        <v>10.09486304973895</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.03917611702196</v>
+        <v>12.67103520696518</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.88181885938717</v>
+        <v>14.1700188491464</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.562679649933698</v>
+        <v>11.18363642375305</v>
       </c>
       <c r="C7">
-        <v>4.600125394446204</v>
+        <v>6.354893303322499</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.45941255100485</v>
+        <v>13.11689936786237</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.638923279379793</v>
+        <v>2.103612939618555</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.84722449154397</v>
+        <v>13.38964566324063</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.577257654247505</v>
+        <v>10.27566026853642</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.08918542483904</v>
+        <v>12.95927669550126</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.84527405533155</v>
+        <v>14.10003882532505</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.973280549737491</v>
+        <v>12.16077715514522</v>
       </c>
       <c r="C8">
-        <v>4.813214753169545</v>
+        <v>6.810057628320363</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.71618796220288</v>
+        <v>14.22116184598408</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.636775590109499</v>
+        <v>2.097749245970419</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.69287135938985</v>
+        <v>13.0035229925122</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.847392235604052</v>
+        <v>11.03653016799124</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.31414013010204</v>
+        <v>14.16507845793629</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.69494749513488</v>
+        <v>13.81993193831511</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.725770382474165</v>
+        <v>13.87780384822704</v>
       </c>
       <c r="C9">
-        <v>5.199434799866355</v>
+        <v>7.62489861118027</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.24024575756554</v>
+        <v>16.32120212436683</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.632978207025967</v>
+        <v>2.086865786816512</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.42375634696059</v>
+        <v>12.32567863919571</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.461369263491095</v>
+        <v>12.39147947939364</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.76716444605257</v>
+        <v>16.2935258886516</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.43958783509888</v>
+        <v>13.38590772581653</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.241308432242089</v>
+        <v>15.01770973215357</v>
       </c>
       <c r="C10">
-        <v>5.462099524199733</v>
+        <v>8.174626794738494</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.6334402047557</v>
+        <v>17.92836417125323</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.63043814703801</v>
+        <v>2.079207314646075</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.24646654781685</v>
+        <v>11.88264218570684</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.906496779368936</v>
+        <v>13.3009936341962</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.10411944615155</v>
+        <v>17.71590672201064</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.2761233282384</v>
+        <v>13.14990324893503</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.46686374841493</v>
+        <v>15.51002875939669</v>
       </c>
       <c r="C11">
-        <v>5.576704370393052</v>
+        <v>8.413931539778847</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.81317920606532</v>
+        <v>18.6300922591907</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.629336302730785</v>
+        <v>2.07578771609471</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.17024224963027</v>
+        <v>11.69484587652967</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.100380106200049</v>
+        <v>13.69584208561711</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.25764597386327</v>
+        <v>18.33301985217892</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.20702775455759</v>
+        <v>13.06359351483219</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.550926647506772</v>
+        <v>15.6927058156134</v>
       </c>
       <c r="C12">
-        <v>5.619378554363141</v>
+        <v>8.502997254958574</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.88129351382618</v>
+        <v>18.89170381106167</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.628926734013052</v>
+        <v>2.07450126404928</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.14201428764682</v>
+        <v>11.62589165145707</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.172526594130055</v>
+        <v>13.84263609999522</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.31576385541119</v>
+        <v>18.56246973323697</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.18162251488705</v>
+        <v>13.03421382547193</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.532883116730444</v>
+        <v>15.65352962291188</v>
       </c>
       <c r="C13">
-        <v>5.610220434675051</v>
+        <v>8.483884482181294</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.86662276917189</v>
+        <v>18.83554238186406</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.629014601179677</v>
+        <v>2.07477796035671</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.14806537206263</v>
+        <v>11.64064287506583</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.157045679666977</v>
+        <v>13.81114270506001</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.30324883835198</v>
+        <v>18.51324090598705</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.18706015509333</v>
+        <v>13.04038972718787</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.473807027430295</v>
+        <v>15.5251328091931</v>
       </c>
       <c r="C14">
-        <v>5.580229831162534</v>
+        <v>8.421290177928523</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.81878240628663</v>
+        <v>18.65169706650442</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.629302453646944</v>
+        <v>2.075681713633446</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.1679071603719</v>
+        <v>11.68912852492453</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.106341336788086</v>
+        <v>13.70797358486684</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.26242805994999</v>
+        <v>18.35198134477115</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.20492240834684</v>
+        <v>13.06110856548474</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.437443749900352</v>
+        <v>15.44599788931131</v>
       </c>
       <c r="C15">
-        <v>5.561764804430171</v>
+        <v>8.382746960768154</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.78948328023</v>
+        <v>18.53855364656845</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.629479770094389</v>
+        <v>2.076236368702443</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.180143727693</v>
+        <v>11.71911463644619</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.07511672936463</v>
+        <v>13.64442431166738</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.23742005295441</v>
+        <v>18.25265548983648</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.21596257557214</v>
+        <v>13.07423824223226</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.226382058339036</v>
+        <v>14.98500914035348</v>
       </c>
       <c r="C16">
-        <v>5.45450962426413</v>
+        <v>8.158770374209649</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.62170498536032</v>
+        <v>17.88192228362433</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.630511231324578</v>
+        <v>2.07943202250944</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.25153704960099</v>
+        <v>11.89520676089674</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.893649725188173</v>
+        <v>13.27480813931467</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.09408635863009</v>
+        <v>17.67498012041878</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.28074505897242</v>
+        <v>13.15599064579489</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.09456021868864</v>
+        <v>14.69550043174798</v>
       </c>
       <c r="C17">
-        <v>5.38744485342557</v>
+        <v>8.018604009208294</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.51894831568335</v>
+        <v>17.47164792556215</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.631157711317778</v>
+        <v>2.081408386444975</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.29646812873607</v>
+        <v>12.00687585389817</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.780094423485387</v>
+        <v>13.04321167534483</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.00617918233049</v>
+        <v>17.3129732131621</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.32183741180111</v>
+        <v>13.21172594948371</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.017898948708028</v>
+        <v>14.52651227824781</v>
       </c>
       <c r="C18">
-        <v>5.348412517762764</v>
+        <v>7.936970248107227</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.45993188560157</v>
+        <v>17.23289659842465</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.631534600764887</v>
+        <v>2.082551237934819</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.32272785525238</v>
+        <v>12.07238595906752</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.713972020324789</v>
+        <v>12.90822507745599</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.95564344587492</v>
+        <v>17.10193427250529</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.34596807557496</v>
+        <v>13.24574704322084</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.99180034129254</v>
+        <v>14.4688710425808</v>
       </c>
       <c r="C19">
-        <v>5.335118819739844</v>
+        <v>7.909156603178367</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.43996709651382</v>
+        <v>17.15158029023285</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.631663077770533</v>
+        <v>2.082939257886967</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.33169048959024</v>
+        <v>12.09478140706526</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.691446420626061</v>
+        <v>12.86221592531436</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.93853908253213</v>
+        <v>17.02999348920418</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.35422331556579</v>
+        <v>13.25759510440518</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.108680369486727</v>
+        <v>14.72657469179394</v>
       </c>
       <c r="C20">
-        <v>5.394631629930313</v>
+        <v>8.033629937180578</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.52987853404591</v>
+        <v>17.51560852588491</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.631088369907506</v>
+        <v>2.08119737327411</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.29164202586517</v>
+        <v>11.99485466527243</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.792266515594974</v>
+        <v>13.06804967328214</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.01553474335382</v>
+        <v>17.35180108564704</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.31741176685714</v>
+        <v>13.20558765360516</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.491196187421142</v>
+        <v>15.56294775748571</v>
       </c>
       <c r="C21">
-        <v>5.589058614244775</v>
+        <v>8.439717822700924</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.83283347695076</v>
+        <v>18.70580773055273</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.629217696380395</v>
+        <v>2.075416035745708</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.16206186977399</v>
+        <v>11.67482688333007</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.121269234557579</v>
+        <v>13.73835088630477</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.27441906189158</v>
+        <v>18.3994616166525</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.19965519085052</v>
+        <v>13.05493097828394</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.733301200778026</v>
+        <v>16.08770047416593</v>
       </c>
       <c r="C22">
-        <v>5.711898512830331</v>
+        <v>8.696064851046097</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.03109680066341</v>
+        <v>19.45972934687624</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.628039826233106</v>
+        <v>2.071686604461209</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.08108401225912</v>
+        <v>11.47836735137922</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.328858960998469</v>
+        <v>14.16054075349644</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.44347834255036</v>
+        <v>19.05950581670115</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.12712415581029</v>
+        <v>12.97586674815995</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.60482514584808</v>
+        <v>15.80962314964369</v>
       </c>
       <c r="C23">
-        <v>5.646730099338121</v>
+        <v>8.560076278691408</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.92527968472484</v>
+        <v>19.05949938418385</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.628664397942691</v>
+        <v>2.073672855912328</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.12396387194684</v>
+        <v>11.58199149787556</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.218754896877524</v>
+        <v>13.93666501894753</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.35327831513417</v>
+        <v>18.70946021755995</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.16542913397695</v>
+        <v>13.01619383005961</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.102299370472968</v>
+        <v>14.71253394956103</v>
       </c>
       <c r="C24">
-        <v>5.391383968940066</v>
+        <v>8.026839985977716</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.5249367905285</v>
+        <v>17.49574291427581</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.631119702897831</v>
+        <v>2.081292751671462</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.29382257297934</v>
+        <v>12.00028537766738</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.786766120088304</v>
+        <v>13.05682614074799</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.0113050798615</v>
+        <v>17.33425609325707</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.31941102456245</v>
+        <v>13.20835663651833</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.528424375226791</v>
+        <v>13.43467950707591</v>
       </c>
       <c r="C25">
-        <v>5.098540067618897</v>
+        <v>7.412978185689878</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.09672672491625</v>
+        <v>15.72609585219079</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.633961428487244</v>
+        <v>2.08974791784606</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.49296915184413</v>
+        <v>12.49994193648606</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.290077205034693</v>
+        <v>12.03990567446625</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.64366052543064</v>
+        <v>15.7427745973076</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.50443695813647</v>
+        <v>13.48974500786962</v>
       </c>
     </row>
   </sheetData>
